--- a/output/data_policy_2020.xlsx
+++ b/output/data_policy_2020.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
-  <si>
-    <t xml:space="preserve">repository.x</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+  <si>
+    <t xml:space="preserve">repository_re3data</t>
   </si>
   <si>
     <t xml:space="preserve">repository_type</t>
@@ -32,19 +32,19 @@
     <t xml:space="preserve">count</t>
   </si>
   <si>
-    <t xml:space="preserve">geo</t>
+    <t xml:space="preserve">Gene Expression Omnibus</t>
   </si>
   <si>
     <t xml:space="preserve">field-specific repository</t>
   </si>
   <si>
-    <t xml:space="preserve">geo and miame_and_guidelines for reviewers and journal editors_and_submitting data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.ncbi.nlm.nih.gov/geo/info/miame.html_and_http://www.ncbi.nlm.nih.gov/geo/info/reviewer.html_and_http://www.ncbi.nlm.nih.gov/geo/info/submission.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">copyrights</t>
+    <t xml:space="preserve">GEO and MIAME_AND_Guidelines for reviewers and journal editors_AND_Submitting data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ncbi.nlm.nih.gov/geo/info/MIAME.html_AND_http://www.ncbi.nlm.nih.gov/geo/info/reviewer.html_AND_http://www.ncbi.nlm.nih.gov/geo/info/submission.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyrights</t>
   </si>
   <si>
     <t xml:space="preserve">figshare</t>
@@ -53,310 +53,313 @@
     <t xml:space="preserve">general-purpose repository</t>
   </si>
   <si>
-    <t xml:space="preserve">cope principles of transparency and best practice in scholarly publishing_and_privacy policy_and_using figshare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://publicationethics.org/files/principles%20of%20transparency%20and%20best%20practice%20in%20scholarly%20publishing_0.pdf_and_http://figshare.com/privacy_and_https://knowledge.figshare.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apache license 2.0_and_bsd_and_cc_and_cc0_and_other</t>
+    <t xml:space="preserve">COPE principles of transparency and best practice in scholarly publishing_AND_Privacy Policy_AND_Using figshare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://publicationethics.org/files/Principles%20of%20Transparency%20and%20Best%20Practice%20in%20Scholarly%20Publishing_0.pdf_AND_http://figshare.com/privacy_AND_https://knowledge.figshare.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apache License 2.0_AND_BSD_AND_CC_AND_CC0_AND_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Science Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOP Guidelines_AND_Terms of Use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cos.io/top/_AND_https://github.com/CenterForOpenScience/cos.io/blob/master/TERMS_OF_USE.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC_AND_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRoteomics IDEntifications Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terms of use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/about/terms-of-use/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Nucleotide Archive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMBL-EBI terms of use_AND_ENA Standards and policies_AND_International Nucleotide Sequence Database Collaboration Policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/about/terms-of-use_AND_https://www.ebi.ac.uk/ena/standards-and-policies_AND_http://www.insdc.org/policy.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCBI Nucleotide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCBI Website and Data Usage Policies and Disclaimers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/home/about/policies/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyrights_AND_Public Domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequence Read Archive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GitHub Corporate Terms of Service_AND_GitHub Site Policy_AND_Privacy Policy_AND_Terms of Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.github.com/en/free-pro-team@latest/github/site-policy/github-corporate-terms-of-service_AND_https://github.com/github/site-policy_AND_https://docs.github.com/en/free-pro-team@latest/github/site-policy/github-privacy-statement_AND_https://docs.github.com/en/free-pro-team@latest/github/site-policy/github-terms-of-service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worldwide Protein Data Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Core Trust Seal_AND_Worldwide Protein Data Bank Policy Statement Governing Integrative/Hybrid Methods Structure Depositions_AND_wwPDB Agreement_AND_wwPDB Privacy and Usage Policies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.coretrustseal.org/wp-content/uploads/2021/05/worldwide-protein-data-bank_2021-05-07.pdf_AND_http://www.wwpdb.org/documentation/ihm_AND_http://www.wwpdb.org/about/agreement_AND_https://www.wwpdb.org/about/privacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public Domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArrayExpress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data access policy_AND_Data availability  policy_AND_Terms of use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/help/data_availability.html_AND_https://www.ebi.ac.uk/ena/about/data-availability-policy_AND_https://www.ebi.ac.uk/about/terms-of-use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public Domain_AND_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BioProject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BioProject_AND_The NCBI Handbook / BioProject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/books/NBK54016/_AND_https://www.ncbi.nlm.nih.gov/books/NBK169438/</t>
   </si>
   <si>
     <t xml:space="preserve">dcc</t>
   </si>
   <si>
-    <t xml:space="preserve">osf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">top guidelines_and_terms of use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cos.io/top/_and_https://github.com/centerforopenscience/cos.io/blob/master/terms_of_use.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cc_and_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pride</t>
-  </si>
-  <si>
-    <t xml:space="preserve">terms of use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/about/terms-of-use/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ncbi website and data usage policies and disclaimers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/home/about/policies/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">copyrights_and_public domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">embl-ebi terms of use_and_ena standards and policies_and_international nucleotide sequence database collaboration policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/about/terms-of-use_and_https://www.ebi.ac.uk/ena/standards-and-policies_and_http://www.insdc.org/policy.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ncbinucleotide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">github</t>
-  </si>
-  <si>
-    <t xml:space="preserve">github corporate terms of service_and_github site policy_and_privacy policy_and_terms of service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://docs.github.com/en/free-pro-team@latest/github/site-policy/github-corporate-terms-of-service_and_https://github.com/github/site-policy_and_https://docs.github.com/en/free-pro-team@latest/github/site-policy/github-privacy-statement_and_https://docs.github.com/en/free-pro-team@latest/github/site-policy/github-terms-of-service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wwpdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">core trust seal_and_worldwide protein data bank policy statement governing integrative/hybrid methods structure depositions_and_wwpdb agreement_and_wwpdb privacy and usage policies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.coretrustseal.org/wp-content/uploads/2021/05/worldwide-protein-data-bank_2021-05-07.pdf_and_http://www.wwpdb.org/documentation/ihm_and_http://www.wwpdb.org/about/agreement_and_https://www.wwpdb.org/about/privacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">public domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arrayexpress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data access policy_and_data availability  policy_and_terms of use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/help/data_availability.html_and_https://www.ebi.ac.uk/ena/about/data-availability-policy_and_https://www.ebi.ac.uk/about/terms-of-use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">public domain_and_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bioproject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bioproject_and_the ncbi handbook / bioproject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/books/nbk54016/_and_https://www.ncbi.nlm.nih.gov/books/nbk169438/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mendeleydata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">copyright and intellectual property policy_and_elsevier terms and conditions_and_implementation of the coretrustseal_and_mendeley terms of use_and_terms of service applicable to governmental users/members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mendeley.com/terms/copyright_and_https://www.elsevier.com/legal/elsevier-website-terms-and-conditions_and_https://www.coretrustseal.org/wp-content/uploads/2017/10/pdf.pdf_and_https://www.mendeley.com/terms/_and_https://www.mendeley.com/terms-governmental-amendment/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cc_and_cc0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zenodo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">policies_and_terms of use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://about.zenodo.org/policies/_and_http://about.zenodo.org/terms/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cc_and_cc0_and_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peptideatlas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submissions to peptideatlas</t>
+    <t xml:space="preserve">Mendeley Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright and Intellectual Property Policy_AND_Elsevier Terms and Conditions_AND_Implementation of the CoreTrustSeal_AND_Mendeley terms of use_AND_Terms of Service applicable to governmental users/members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mendeley.com/terms/copyright_AND_https://www.elsevier.com/legal/elsevier-website-terms-and-conditions_AND_https://www.coretrustseal.org/wp-content/uploads/2017/10/pdf.pdf_AND_https://www.mendeley.com/terms/_AND_https://www.mendeley.com/terms-governmental-amendment/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC_AND_CC0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zenodo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policies_AND_Terms of use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://about.zenodo.org/policies/_AND_http://about.zenodo.org/terms/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC_AND_CC0_AND_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProteomeXchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/about/terms-of-use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Electron Microscopy Data Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wwPDB agreement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.wwpdb.org/about/agreement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terms of Use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://codeocean.com/legal/terms-of-use.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0_AND_Copyrights_AND_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.gin.g-node.org/G-Node/Info/wiki/Terms+of+Use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PeptideAtlas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submissions to PeptideAtlas</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.peptideatlas.org/upload/</t>
   </si>
   <si>
-    <t xml:space="preserve">proteomexchange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/about/terms-of-use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">synapse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">synapse commons governance overview_and_synapse terms and conditions of use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://docs.synapse.org/articles/governance.html_and_https://s3.amazonaws.com/static.synapse.org/governance/sagebionetworkssynapsetermsandconditionsofuse.pdf?v=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wwpdb agreement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.wwpdb.org/about/agreement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">codeocean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codeocean.com/legal/terms-of-use.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cc0_and_copyrights_and_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">europeangenomephenomearchive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crg terms of use_and_data access agreement_and_ebi terms of use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.crg.eu/node/10699_and_https://ega-archive.org/files/example_daa.doc_and_https://www.ebi.ac.uk/about/terms-of-use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://web.gin.g-node.org/g-node/info/wiki/terms+of+use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dryad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">our community_and_publication policy_and_terms of service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datadryad.org/stash/our_community#institutional_and_https://datadryad.org/stash/terms#publication_and_https://datadryad.org/stash/terms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cc0_and_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">openneuro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">openneuro faq</t>
+    <t xml:space="preserve">Synapse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synapse Commons Governance Overview_AND_Synapse Terms and Conditions of Use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.synapse.org/articles/governance.html_AND_https://s3.amazonaws.com/static.synapse.org/governance/SageBionetworksSynapseTermsandConditionsofUse.pdf?v=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The European Genome-phenome Archive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRG Terms of Use_AND_Data Access Agreement_AND_EBI Terms of Use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crg.eu/node/10699_AND_https://ega-archive.org/files/Example_DAA.doc_AND_https://www.ebi.ac.uk/about/terms-of-use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRYAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our community_AND_Publication policy_AND_Terms of Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/our_community#institutional_AND_https://datadryad.org/stash/terms#publication_AND_https://datadryad.org/stash/terms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0_AND_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenNeuro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenNeuro FAQ</t>
   </si>
   <si>
     <t xml:space="preserve">https://openneuro.org/faq</t>
   </si>
   <si>
-    <t xml:space="preserve">cc_and_cc0_and_odc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addgene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addgene terms of purchase_and_terms of use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.addgene.org/shopping/terms-of-purchase/_and_https://www.addgene.org/terms-of-use/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clinicaltrialsgov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">terms and conditions</t>
+    <t xml:space="preserve">CC_AND_CC0_AND_ODC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addgene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addgene Terms of Purchase_AND_Terms of Use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.addgene.org/shopping/terms-of-purchase/_AND_https://www.addgene.org/terms-of-use/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinical Proteomic Tumor Analysis Consortium Data Portal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClinicalTrials.gov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terms and conditions</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.clinicaltrials.gov/ct2/about-site/terms-conditions</t>
   </si>
   <si>
-    <t xml:space="preserve">copyrights_and_public domain_and_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cptacdataportal</t>
+    <t xml:space="preserve">Copyrights_AND_Public Domain_AND_other</t>
   </si>
   <si>
     <t xml:space="preserve">decipher</t>
   </si>
   <si>
-    <t xml:space="preserve">flowrepository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flowrepository privacy policy_and_terms of use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://flowrepository.org/privacy_policy_and_http://flowrepository.org/terms_of_service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ghdx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">privacy policy_and_terms and conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.healthdata.org/privacy-policy_and_http://www.healthdata.org/about/terms-and-conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">odc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gigadb</t>
+    <t xml:space="preserve">FlowRepository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlowRepository Privacy Policy_AND_Terms of Use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://flowrepository.org/privacy_policy_AND_http://flowrepository.org/terms_of_service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GigaDB</t>
   </si>
   <si>
     <t xml:space="preserve">http://gigadb.org/site/term</t>
   </si>
   <si>
-    <t xml:space="preserve">cc_and_public domain</t>
+    <t xml:space="preserve">CC_AND_Public Domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Health Data Exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privacy Policy_AND_Terms and conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.healthdata.org/privacy-policy_AND_http://www.healthdata.org/about/terms-and-conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODC</t>
   </si>
   <si>
     <t xml:space="preserve">gpcrmd</t>
   </si>
   <si>
-    <t xml:space="preserve">harvarddataverse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">api terms of use_and_terms of use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dataverse.org/best-practices/harvard-api-tou_and_https://dataverse.org/best-practices/harvard-dataverse-general-terms-use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cc0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">massive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proteomexchange collaborative agreement</t>
+    <t xml:space="preserve">Harvard Dataverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API Terms of Use_AND_Terms of use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dataverse.org/best-practices/harvard-api-tou_AND_https://dataverse.org/best-practices/harvard-dataverse-general-terms-use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass Spectrometry Interactive Virtual Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProteomeXchange collaborative agreement</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.proteomexchange.org/pxcollaborativeagreement.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">metabolights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">embl-ebi terms of use_and_metabolights submission guide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/about/terms-of-use_and_https://docs.google.com/document/d/1kvbdnleinvr1umyv-sm91w2uk_ifku11rx-uxvilofu/view?pli=1#heading=h.30j0zll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">physionet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">physionet guidelines</t>
+    <t xml:space="preserve">MetaboLights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMBL-EBI Terms of Use_AND_MetaboLights Submission Guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/about/terms-of-use_AND_https://docs.google.com/document/d/1kvBdnleInVr1UMyV-sm91w2uK_IfkU11Rx-uxvILOFU/view?pli=1#heading=h.30j0zll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhysioNet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhysioNet Guidelines</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.physionet.org/guidelines.shtml</t>
@@ -368,16 +371,16 @@
     <t xml:space="preserve">raeslab</t>
   </si>
   <si>
-    <t xml:space="preserve">tudatalib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leitfaden und informationen zu tudatalib für administratoren_and_leitlinien zum umgang mit digitalen forschungsdaten an der tu darmstadt_and_nutzungsvereinbarung für tudatalib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tudatalib.ulb.tu-darmstadt.de/handle/tudatalib/1958.8?locale-attribute=en_us_and_https://www.ulb.tu-darmstadt.de/fdm-leitlinien_and_https://www.tu-darmstadt.de/tudata/tudata/tudatalib/inhalt_mit_marginalienspalte_327.de.jsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apache license 2.0_and_cc_and_odc_and_public domain</t>
+    <t xml:space="preserve">TUdatalib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leitfaden und Informationen zu TUdatalib für Administratoren_AND_Leitlinien zum Umgang mit digitalen Forschungsdaten an der TU Darmstadt_AND_Nutzungsvereinbarung für TUdatalib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tudatalib.ulb.tu-darmstadt.de/handle/tudatalib/1958.8?locale-attribute=en_US_AND_https://www.ulb.tu-darmstadt.de/fdm-leitlinien_AND_https://www.tu-darmstadt.de/tudata/tudata/tudatalib/inhalt_mit_marginalienspalte_327.de.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apache License 2.0_AND_CC_AND_ODC_AND_Public Domain</t>
   </si>
 </sst>
 </file>
@@ -746,7 +749,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
@@ -774,16 +777,16 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E4" t="e">
-        <v>#N/A</v>
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
       </c>
       <c r="F4" t="n">
         <v>21</v>
@@ -791,82 +794,82 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="n">
         <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
       <c r="F6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -874,36 +877,36 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F9" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -911,59 +914,59 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
+      <c r="C13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E13" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F13" t="n">
         <v>7</v>
@@ -1017,13 +1020,13 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
         <v>57</v>
       </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F16" t="n">
         <v>5</v>
@@ -1031,22 +1034,22 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
         <v>59</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
       </c>
       <c r="D17" t="s">
         <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1063,30 +1066,30 @@
         <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
         <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1097,13 +1100,13 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="F20" t="n">
         <v>3</v>
@@ -1123,7 +1126,7 @@
         <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" t="n">
         <v>3</v>
@@ -1137,13 +1140,13 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F22" t="n">
         <v>3</v>
@@ -1151,19 +1154,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
@@ -1171,19 +1174,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
@@ -1191,19 +1194,19 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -1211,19 +1214,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" t="s">
-        <v>88</v>
+      <c r="C26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D26" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E26" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -1231,19 +1234,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
         <v>90</v>
       </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D27" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -1251,7 +1254,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -1271,19 +1274,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -1291,13 +1294,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
         <v>97</v>
@@ -1317,13 +1320,13 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -1331,7 +1334,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
@@ -1351,19 +1354,19 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
@@ -1371,19 +1374,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
@@ -1391,19 +1394,19 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -1411,19 +1414,19 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
@@ -1431,7 +1434,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
@@ -1451,7 +1454,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -1471,19 +1474,19 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>

--- a/output/data_policy_2020.xlsx
+++ b/output/data_policy_2020.xlsx
@@ -1,394 +1,401 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/jan_taubitz_charite_de/Documents/_BIH/BUA-Dashboards/fair-assessment/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_E98293383C69EF313DF5A8DC687B18CF8A584B81" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD1CB996-CA65-C946-AE29-2002AF741EFE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17840" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data_policy_2020" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data_policy_2020" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
-  <si>
-    <t xml:space="preserve">repository_re3data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repository_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">policy_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">policy_url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_license_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gene Expression Omnibus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field-specific repository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEO and MIAME_AND_Guidelines for reviewers and journal editors_AND_Submitting data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.ncbi.nlm.nih.gov/geo/info/MIAME.html_AND_http://www.ncbi.nlm.nih.gov/geo/info/reviewer.html_AND_http://www.ncbi.nlm.nih.gov/geo/info/submission.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyrights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">figshare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">general-purpose repository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COPE principles of transparency and best practice in scholarly publishing_AND_Privacy Policy_AND_Using figshare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://publicationethics.org/files/Principles%20of%20Transparency%20and%20Best%20Practice%20in%20Scholarly%20Publishing_0.pdf_AND_http://figshare.com/privacy_AND_https://knowledge.figshare.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache License 2.0_AND_BSD_AND_CC_AND_CC0_AND_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Science Framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOP Guidelines_AND_Terms of Use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cos.io/top/_AND_https://github.com/CenterForOpenScience/cos.io/blob/master/TERMS_OF_USE.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC_AND_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRoteomics IDEntifications Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terms of use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/about/terms-of-use/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Nucleotide Archive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMBL-EBI terms of use_AND_ENA Standards and policies_AND_International Nucleotide Sequence Database Collaboration Policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/about/terms-of-use_AND_https://www.ebi.ac.uk/ena/standards-and-policies_AND_http://www.insdc.org/policy.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCBI Nucleotide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCBI Website and Data Usage Policies and Disclaimers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/home/about/policies/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyrights_AND_Public Domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequence Read Archive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub Corporate Terms of Service_AND_GitHub Site Policy_AND_Privacy Policy_AND_Terms of Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://docs.github.com/en/free-pro-team@latest/github/site-policy/github-corporate-terms-of-service_AND_https://github.com/github/site-policy_AND_https://docs.github.com/en/free-pro-team@latest/github/site-policy/github-privacy-statement_AND_https://docs.github.com/en/free-pro-team@latest/github/site-policy/github-terms-of-service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worldwide Protein Data Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Core Trust Seal_AND_Worldwide Protein Data Bank Policy Statement Governing Integrative/Hybrid Methods Structure Depositions_AND_wwPDB Agreement_AND_wwPDB Privacy and Usage Policies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.coretrustseal.org/wp-content/uploads/2021/05/worldwide-protein-data-bank_2021-05-07.pdf_AND_http://www.wwpdb.org/documentation/ihm_AND_http://www.wwpdb.org/about/agreement_AND_https://www.wwpdb.org/about/privacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public Domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArrayExpress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data access policy_AND_Data availability  policy_AND_Terms of use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/help/data_availability.html_AND_https://www.ebi.ac.uk/ena/about/data-availability-policy_AND_https://www.ebi.ac.uk/about/terms-of-use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public Domain_AND_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BioProject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BioProject_AND_The NCBI Handbook / BioProject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/books/NBK54016/_AND_https://www.ncbi.nlm.nih.gov/books/NBK169438/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dcc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mendeley Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyright and Intellectual Property Policy_AND_Elsevier Terms and Conditions_AND_Implementation of the CoreTrustSeal_AND_Mendeley terms of use_AND_Terms of Service applicable to governmental users/members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mendeley.com/terms/copyright_AND_https://www.elsevier.com/legal/elsevier-website-terms-and-conditions_AND_https://www.coretrustseal.org/wp-content/uploads/2017/10/pdf.pdf_AND_https://www.mendeley.com/terms/_AND_https://www.mendeley.com/terms-governmental-amendment/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC_AND_CC0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zenodo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Policies_AND_Terms of use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://about.zenodo.org/policies/_AND_http://about.zenodo.org/terms/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC_AND_CC0_AND_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProteomeXchange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/about/terms-of-use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Electron Microscopy Data Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wwPDB agreement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.wwpdb.org/about/agreement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Ocean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terms of Use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codeocean.com/legal/terms-of-use.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0_AND_Copyrights_AND_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://web.gin.g-node.org/G-Node/Info/wiki/Terms+of+Use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PeptideAtlas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submissions to PeptideAtlas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.peptideatlas.org/upload/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Synapse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Synapse Commons Governance Overview_AND_Synapse Terms and Conditions of Use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://docs.synapse.org/articles/governance.html_AND_https://s3.amazonaws.com/static.synapse.org/governance/SageBionetworksSynapseTermsandConditionsofUse.pdf?v=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The European Genome-phenome Archive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRG Terms of Use_AND_Data Access Agreement_AND_EBI Terms of Use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.crg.eu/node/10699_AND_https://ega-archive.org/files/Example_DAA.doc_AND_https://www.ebi.ac.uk/about/terms-of-use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRYAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Our community_AND_Publication policy_AND_Terms of Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datadryad.org/stash/our_community#institutional_AND_https://datadryad.org/stash/terms#publication_AND_https://datadryad.org/stash/terms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0_AND_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenNeuro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenNeuro FAQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://openneuro.org/faq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC_AND_CC0_AND_ODC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Addgene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Addgene Terms of Purchase_AND_Terms of Use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.addgene.org/shopping/terms-of-purchase/_AND_https://www.addgene.org/terms-of-use/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clinical Proteomic Tumor Analysis Consortium Data Portal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ClinicalTrials.gov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terms and conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.clinicaltrials.gov/ct2/about-site/terms-conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyrights_AND_Public Domain_AND_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decipher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FlowRepository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FlowRepository Privacy Policy_AND_Terms of Use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://flowrepository.org/privacy_policy_AND_http://flowrepository.org/terms_of_service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GigaDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://gigadb.org/site/term</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC_AND_Public Domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Health Data Exchange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Privacy Policy_AND_Terms and conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.healthdata.org/privacy-policy_AND_http://www.healthdata.org/about/terms-and-conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gpcrmd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harvard Dataverse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">API Terms of Use_AND_Terms of use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dataverse.org/best-practices/harvard-api-tou_AND_https://dataverse.org/best-practices/harvard-dataverse-general-terms-use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass Spectrometry Interactive Virtual Environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProteomeXchange collaborative agreement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.proteomexchange.org/pxcollaborativeagreement.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MetaboLights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMBL-EBI Terms of Use_AND_MetaboLights Submission Guide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/about/terms-of-use_AND_https://docs.google.com/document/d/1kvBdnleInVr1UMyV-sm91w2uK_IfkU11Rx-uxvILOFU/view?pli=1#heading=h.30j0zll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PhysioNet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PhysioNet Guidelines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.physionet.org/guidelines.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proteindiffraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raeslab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUdatalib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leitfaden und Informationen zu TUdatalib für Administratoren_AND_Leitlinien zum Umgang mit digitalen Forschungsdaten an der TU Darmstadt_AND_Nutzungsvereinbarung für TUdatalib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tudatalib.ulb.tu-darmstadt.de/handle/tudatalib/1958.8?locale-attribute=en_US_AND_https://www.ulb.tu-darmstadt.de/fdm-leitlinien_AND_https://www.tu-darmstadt.de/tudata/tudata/tudatalib/inhalt_mit_marginalienspalte_327.de.jsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache License 2.0_AND_CC_AND_ODC_AND_Public Domain</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="123">
+  <si>
+    <t>repository_re3data</t>
+  </si>
+  <si>
+    <t>repository_type</t>
+  </si>
+  <si>
+    <t>policy_name</t>
+  </si>
+  <si>
+    <t>policy_url</t>
+  </si>
+  <si>
+    <t>data_license_name</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>Gene Expression Omnibus</t>
+  </si>
+  <si>
+    <t>field-specific repository</t>
+  </si>
+  <si>
+    <t>GEO and MIAME_AND_Guidelines for reviewers and journal editors_AND_Submitting data</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/geo/info/MIAME.html_AND_http://www.ncbi.nlm.nih.gov/geo/info/reviewer.html_AND_http://www.ncbi.nlm.nih.gov/geo/info/submission.html</t>
+  </si>
+  <si>
+    <t>Copyrights</t>
+  </si>
+  <si>
+    <t>figshare</t>
+  </si>
+  <si>
+    <t>general-purpose repository</t>
+  </si>
+  <si>
+    <t>COPE principles of transparency and best practice in scholarly publishing_AND_Privacy Policy_AND_Using figshare</t>
+  </si>
+  <si>
+    <t>http://publicationethics.org/files/Principles%20of%20Transparency%20and%20Best%20Practice%20in%20Scholarly%20Publishing_0.pdf_AND_http://figshare.com/privacy_AND_https://knowledge.figshare.com/</t>
+  </si>
+  <si>
+    <t>Apache License 2.0_AND_BSD_AND_CC_AND_CC0_AND_other</t>
+  </si>
+  <si>
+    <t>Open Science Framework</t>
+  </si>
+  <si>
+    <t>TOP Guidelines_AND_Terms of Use</t>
+  </si>
+  <si>
+    <t>https://cos.io/top/_AND_https://github.com/CenterForOpenScience/cos.io/blob/master/TERMS_OF_USE.md</t>
+  </si>
+  <si>
+    <t>CC_AND_other</t>
+  </si>
+  <si>
+    <t>PRoteomics IDEntifications Database</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/about/terms-of-use/</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>European Nucleotide Archive</t>
+  </si>
+  <si>
+    <t>EMBL-EBI terms of use_AND_ENA Standards and policies_AND_International Nucleotide Sequence Database Collaboration Policy</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/about/terms-of-use_AND_https://www.ebi.ac.uk/ena/standards-and-policies_AND_http://www.insdc.org/policy.html</t>
+  </si>
+  <si>
+    <t>NCBI Nucleotide</t>
+  </si>
+  <si>
+    <t>NCBI Website and Data Usage Policies and Disclaimers</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/home/about/policies/</t>
+  </si>
+  <si>
+    <t>Copyrights_AND_Public Domain</t>
+  </si>
+  <si>
+    <t>Sequence Read Archive</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>GitHub Corporate Terms of Service_AND_GitHub Site Policy_AND_Privacy Policy_AND_Terms of Service</t>
+  </si>
+  <si>
+    <t>https://docs.github.com/en/free-pro-team@latest/github/site-policy/github-corporate-terms-of-service_AND_https://github.com/github/site-policy_AND_https://docs.github.com/en/free-pro-team@latest/github/site-policy/github-privacy-statement_AND_https://docs.github.com/en/free-pro-team@latest/github/site-policy/github-terms-of-service</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Worldwide Protein Data Bank</t>
+  </si>
+  <si>
+    <t>Core Trust Seal_AND_Worldwide Protein Data Bank Policy Statement Governing Integrative/Hybrid Methods Structure Depositions_AND_wwPDB Agreement_AND_wwPDB Privacy and Usage Policies</t>
+  </si>
+  <si>
+    <t>https://www.coretrustseal.org/wp-content/uploads/2021/05/worldwide-protein-data-bank_2021-05-07.pdf_AND_http://www.wwpdb.org/documentation/ihm_AND_http://www.wwpdb.org/about/agreement_AND_https://www.wwpdb.org/about/privacy</t>
+  </si>
+  <si>
+    <t>Public Domain</t>
+  </si>
+  <si>
+    <t>ArrayExpress</t>
+  </si>
+  <si>
+    <t>Data access policy_AND_Data availability  policy_AND_Terms of use</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/arrayexpress/help/data_availability.html_AND_https://www.ebi.ac.uk/ena/about/data-availability-policy_AND_https://www.ebi.ac.uk/about/terms-of-use</t>
+  </si>
+  <si>
+    <t>Public Domain_AND_other</t>
+  </si>
+  <si>
+    <t>BioProject</t>
+  </si>
+  <si>
+    <t>BioProject_AND_The NCBI Handbook / BioProject</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/books/NBK54016/_AND_https://www.ncbi.nlm.nih.gov/books/NBK169438/</t>
+  </si>
+  <si>
+    <t>dcc</t>
+  </si>
+  <si>
+    <t>Mendeley Data</t>
+  </si>
+  <si>
+    <t>Copyright and Intellectual Property Policy_AND_Elsevier Terms and Conditions_AND_Implementation of the CoreTrustSeal_AND_Mendeley terms of use_AND_Terms of Service applicable to governmental users/members</t>
+  </si>
+  <si>
+    <t>https://www.mendeley.com/terms/copyright_AND_https://www.elsevier.com/legal/elsevier-website-terms-and-conditions_AND_https://www.coretrustseal.org/wp-content/uploads/2017/10/pdf.pdf_AND_https://www.mendeley.com/terms/_AND_https://www.mendeley.com/terms-governmental-amendment/</t>
+  </si>
+  <si>
+    <t>CC_AND_CC0</t>
+  </si>
+  <si>
+    <t>Zenodo</t>
+  </si>
+  <si>
+    <t>Policies_AND_Terms of use</t>
+  </si>
+  <si>
+    <t>http://about.zenodo.org/policies/_AND_http://about.zenodo.org/terms/</t>
+  </si>
+  <si>
+    <t>CC_AND_CC0_AND_other</t>
+  </si>
+  <si>
+    <t>ProteomeXchange</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/about/terms-of-use</t>
+  </si>
+  <si>
+    <t>The Electron Microscopy Data Bank</t>
+  </si>
+  <si>
+    <t>wwPDB agreement</t>
+  </si>
+  <si>
+    <t>https://www.wwpdb.org/about/agreement</t>
+  </si>
+  <si>
+    <t>Code Ocean</t>
+  </si>
+  <si>
+    <t>Terms of Use</t>
+  </si>
+  <si>
+    <t>https://codeocean.com/legal/terms-of-use.html</t>
+  </si>
+  <si>
+    <t>CC0_AND_Copyrights_AND_other</t>
+  </si>
+  <si>
+    <t>GIN</t>
+  </si>
+  <si>
+    <t>https://web.gin.g-node.org/G-Node/Info/wiki/Terms+of+Use</t>
+  </si>
+  <si>
+    <t>PeptideAtlas</t>
+  </si>
+  <si>
+    <t>Submissions to PeptideAtlas</t>
+  </si>
+  <si>
+    <t>http://www.peptideatlas.org/upload/</t>
+  </si>
+  <si>
+    <t>Synapse</t>
+  </si>
+  <si>
+    <t>Synapse Commons Governance Overview_AND_Synapse Terms and Conditions of Use</t>
+  </si>
+  <si>
+    <t>https://docs.synapse.org/articles/governance.html_AND_https://s3.amazonaws.com/static.synapse.org/governance/SageBionetworksSynapseTermsandConditionsofUse.pdf?v=4</t>
+  </si>
+  <si>
+    <t>The European Genome-phenome Archive</t>
+  </si>
+  <si>
+    <t>CRG Terms of Use_AND_Data Access Agreement_AND_EBI Terms of Use</t>
+  </si>
+  <si>
+    <t>https://www.crg.eu/node/10699_AND_https://ega-archive.org/files/Example_DAA.doc_AND_https://www.ebi.ac.uk/about/terms-of-use</t>
+  </si>
+  <si>
+    <t>DRYAD</t>
+  </si>
+  <si>
+    <t>Our community_AND_Publication policy_AND_Terms of Service</t>
+  </si>
+  <si>
+    <t>https://datadryad.org/stash/our_community#institutional_AND_https://datadryad.org/stash/terms#publication_AND_https://datadryad.org/stash/terms</t>
+  </si>
+  <si>
+    <t>CC0_AND_other</t>
+  </si>
+  <si>
+    <t>OpenNeuro</t>
+  </si>
+  <si>
+    <t>OpenNeuro FAQ</t>
+  </si>
+  <si>
+    <t>https://openneuro.org/faq</t>
+  </si>
+  <si>
+    <t>CC_AND_CC0_AND_ODC</t>
+  </si>
+  <si>
+    <t>Addgene</t>
+  </si>
+  <si>
+    <t>Addgene Terms of Purchase_AND_Terms of Use</t>
+  </si>
+  <si>
+    <t>https://www.addgene.org/shopping/terms-of-purchase/_AND_https://www.addgene.org/terms-of-use/</t>
+  </si>
+  <si>
+    <t>Clinical Proteomic Tumor Analysis Consortium Data Portal</t>
+  </si>
+  <si>
+    <t>ClinicalTrials.gov</t>
+  </si>
+  <si>
+    <t>Terms and conditions</t>
+  </si>
+  <si>
+    <t>https://www.clinicaltrials.gov/ct2/about-site/terms-conditions</t>
+  </si>
+  <si>
+    <t>Copyrights_AND_Public Domain_AND_other</t>
+  </si>
+  <si>
+    <t>decipher</t>
+  </si>
+  <si>
+    <t>FlowRepository</t>
+  </si>
+  <si>
+    <t>FlowRepository Privacy Policy_AND_Terms of Use</t>
+  </si>
+  <si>
+    <t>http://flowrepository.org/privacy_policy_AND_http://flowrepository.org/terms_of_service</t>
+  </si>
+  <si>
+    <t>GigaDB</t>
+  </si>
+  <si>
+    <t>http://gigadb.org/site/term</t>
+  </si>
+  <si>
+    <t>CC_AND_Public Domain</t>
+  </si>
+  <si>
+    <t>Global Health Data Exchange</t>
+  </si>
+  <si>
+    <t>Privacy Policy_AND_Terms and conditions</t>
+  </si>
+  <si>
+    <t>http://www.healthdata.org/privacy-policy_AND_http://www.healthdata.org/about/terms-and-conditions</t>
+  </si>
+  <si>
+    <t>ODC</t>
+  </si>
+  <si>
+    <t>gpcrmd</t>
+  </si>
+  <si>
+    <t>Harvard Dataverse</t>
+  </si>
+  <si>
+    <t>API Terms of Use_AND_Terms of use</t>
+  </si>
+  <si>
+    <t>https://dataverse.org/best-practices/harvard-api-tou_AND_https://dataverse.org/best-practices/harvard-dataverse-general-terms-use</t>
+  </si>
+  <si>
+    <t>CC0</t>
+  </si>
+  <si>
+    <t>Mass Spectrometry Interactive Virtual Environment</t>
+  </si>
+  <si>
+    <t>ProteomeXchange collaborative agreement</t>
+  </si>
+  <si>
+    <t>http://www.proteomexchange.org/pxcollaborativeagreement.pdf</t>
+  </si>
+  <si>
+    <t>MetaboLights</t>
+  </si>
+  <si>
+    <t>EMBL-EBI Terms of Use_AND_MetaboLights Submission Guide</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/about/terms-of-use_AND_https://docs.google.com/document/d/1kvBdnleInVr1UMyV-sm91w2uK_IfkU11Rx-uxvILOFU/view?pli=1#heading=h.30j0zll</t>
+  </si>
+  <si>
+    <t>PhysioNet</t>
+  </si>
+  <si>
+    <t>PhysioNet Guidelines</t>
+  </si>
+  <si>
+    <t>https://www.physionet.org/guidelines.shtml</t>
+  </si>
+  <si>
+    <t>proteindiffraction</t>
+  </si>
+  <si>
+    <t>raeslab</t>
+  </si>
+  <si>
+    <t>TUdatalib</t>
+  </si>
+  <si>
+    <t>Leitfaden und Informationen zu TUdatalib für Administratoren_AND_Leitlinien zum Umgang mit digitalen Forschungsdaten an der TU Darmstadt_AND_Nutzungsvereinbarung für TUdatalib</t>
+  </si>
+  <si>
+    <t>https://tudatalib.ulb.tu-darmstadt.de/handle/tudatalib/1958.8?locale-attribute=en_US_AND_https://www.ulb.tu-darmstadt.de/fdm-leitlinien_AND_https://www.tu-darmstadt.de/tudata/tudata/tudatalib/inhalt_mit_marginalienspalte_327.de.jsp</t>
+  </si>
+  <si>
+    <t>Apache License 2.0_AND_CC_AND_ODC_AND_Public Domain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -424,6 +431,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -705,14 +721,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -732,7 +756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -748,11 +772,11 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>88</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -768,11 +792,11 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>34</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -788,11 +812,11 @@
       <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>21</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -808,11 +832,11 @@
       <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -828,11 +852,11 @@
       <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>16</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -848,11 +872,11 @@
       <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>15</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -868,11 +892,11 @@
       <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -888,11 +912,11 @@
       <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -908,11 +932,11 @@
       <c r="E10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -928,11 +952,11 @@
       <c r="E11" t="s">
         <v>43</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>8</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -948,11 +972,11 @@
       <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="F12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="F12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -968,11 +992,11 @@
       <c r="E13" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="F13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -988,11 +1012,11 @@
       <c r="E14" t="s">
         <v>51</v>
       </c>
-      <c r="F14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="F14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1008,11 +1032,11 @@
       <c r="E15" t="s">
         <v>55</v>
       </c>
-      <c r="F15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="F15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -1028,11 +1052,11 @@
       <c r="E16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>5</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -1048,11 +1072,11 @@
       <c r="E17" t="s">
         <v>43</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>4</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -1068,11 +1092,11 @@
       <c r="E18" t="s">
         <v>64</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>3</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1088,11 +1112,11 @@
       <c r="E19" t="s">
         <v>51</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>3</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -1108,11 +1132,11 @@
       <c r="E20" t="s">
         <v>39</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>3</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -1128,11 +1152,11 @@
       <c r="E21" t="s">
         <v>35</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>3</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -1148,11 +1172,11 @@
       <c r="E22" t="s">
         <v>35</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>3</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -1168,11 +1192,11 @@
       <c r="E23" t="s">
         <v>79</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>2</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -1188,11 +1212,11 @@
       <c r="E24" t="s">
         <v>83</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>2</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -1208,11 +1232,11 @@
       <c r="E25" t="s">
         <v>35</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>1</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -1228,11 +1252,11 @@
       <c r="E26" t="s">
         <v>43</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>1</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>88</v>
       </c>
@@ -1248,11 +1272,11 @@
       <c r="E27" t="s">
         <v>91</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>1</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -1268,11 +1292,11 @@
       <c r="E28" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>1</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -1288,11 +1312,11 @@
       <c r="E29" t="s">
         <v>43</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>1</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -1308,11 +1332,11 @@
       <c r="E30" t="s">
         <v>98</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>1</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -1328,11 +1352,11 @@
       <c r="E31" t="s">
         <v>102</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>1</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>103</v>
       </c>
@@ -1348,11 +1372,11 @@
       <c r="E32" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>1</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>104</v>
       </c>
@@ -1368,11 +1392,11 @@
       <c r="E33" t="s">
         <v>107</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>1</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>108</v>
       </c>
@@ -1388,11 +1412,11 @@
       <c r="E34" t="s">
         <v>23</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>1</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>111</v>
       </c>
@@ -1408,11 +1432,11 @@
       <c r="E35" t="s">
         <v>35</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>1</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -1428,11 +1452,11 @@
       <c r="E36" t="s">
         <v>35</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>1</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>117</v>
       </c>
@@ -1448,11 +1472,11 @@
       <c r="E37" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>1</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -1468,11 +1492,11 @@
       <c r="E38" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>1</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>119</v>
       </c>
@@ -1488,12 +1512,12 @@
       <c r="E39" t="s">
         <v>122</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/output/data_policy_2020.xlsx
+++ b/output/data_policy_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/jan_taubitz_charite_de/Documents/_BIH/BUA-Dashboards/fair-assessment/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_E98293383C69EF313DF5A8DC687B18CF8A584B81" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD1CB996-CA65-C946-AE29-2002AF741EFE}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_E98293383C69EF313DF5A8DC687B18CF8A584B81" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED4A47D0-A6DE-2A4A-8C6D-86153017E13B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17840" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="20540" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_policy_2020" sheetId="1" r:id="rId1"/>
@@ -732,6 +732,7 @@
   <cols>
     <col min="1" max="1" width="38.83203125" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.33203125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
   </cols>

--- a/output/data_policy_2020.xlsx
+++ b/output/data_policy_2020.xlsx
@@ -1,401 +1,394 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/jan_taubitz_charite_de/Documents/_BIH/BUA-Dashboards/fair-assessment/output/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_E98293383C69EF313DF5A8DC687B18CF8A584B81" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED4A47D0-A6DE-2A4A-8C6D-86153017E13B}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="20540" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="data_policy_2020" sheetId="1" r:id="rId1"/>
+    <sheet name="data_policy_2020" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="123">
-  <si>
-    <t>repository_re3data</t>
-  </si>
-  <si>
-    <t>repository_type</t>
-  </si>
-  <si>
-    <t>policy_name</t>
-  </si>
-  <si>
-    <t>policy_url</t>
-  </si>
-  <si>
-    <t>data_license_name</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>Gene Expression Omnibus</t>
-  </si>
-  <si>
-    <t>field-specific repository</t>
-  </si>
-  <si>
-    <t>GEO and MIAME_AND_Guidelines for reviewers and journal editors_AND_Submitting data</t>
-  </si>
-  <si>
-    <t>http://www.ncbi.nlm.nih.gov/geo/info/MIAME.html_AND_http://www.ncbi.nlm.nih.gov/geo/info/reviewer.html_AND_http://www.ncbi.nlm.nih.gov/geo/info/submission.html</t>
-  </si>
-  <si>
-    <t>Copyrights</t>
-  </si>
-  <si>
-    <t>figshare</t>
-  </si>
-  <si>
-    <t>general-purpose repository</t>
-  </si>
-  <si>
-    <t>COPE principles of transparency and best practice in scholarly publishing_AND_Privacy Policy_AND_Using figshare</t>
-  </si>
-  <si>
-    <t>http://publicationethics.org/files/Principles%20of%20Transparency%20and%20Best%20Practice%20in%20Scholarly%20Publishing_0.pdf_AND_http://figshare.com/privacy_AND_https://knowledge.figshare.com/</t>
-  </si>
-  <si>
-    <t>Apache License 2.0_AND_BSD_AND_CC_AND_CC0_AND_other</t>
-  </si>
-  <si>
-    <t>Open Science Framework</t>
-  </si>
-  <si>
-    <t>TOP Guidelines_AND_Terms of Use</t>
-  </si>
-  <si>
-    <t>https://cos.io/top/_AND_https://github.com/CenterForOpenScience/cos.io/blob/master/TERMS_OF_USE.md</t>
-  </si>
-  <si>
-    <t>CC_AND_other</t>
-  </si>
-  <si>
-    <t>PRoteomics IDEntifications Database</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/about/terms-of-use/</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>European Nucleotide Archive</t>
-  </si>
-  <si>
-    <t>EMBL-EBI terms of use_AND_ENA Standards and policies_AND_International Nucleotide Sequence Database Collaboration Policy</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/about/terms-of-use_AND_https://www.ebi.ac.uk/ena/standards-and-policies_AND_http://www.insdc.org/policy.html</t>
-  </si>
-  <si>
-    <t>NCBI Nucleotide</t>
-  </si>
-  <si>
-    <t>NCBI Website and Data Usage Policies and Disclaimers</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/home/about/policies/</t>
-  </si>
-  <si>
-    <t>Copyrights_AND_Public Domain</t>
-  </si>
-  <si>
-    <t>Sequence Read Archive</t>
-  </si>
-  <si>
-    <t>GitHub</t>
-  </si>
-  <si>
-    <t>GitHub Corporate Terms of Service_AND_GitHub Site Policy_AND_Privacy Policy_AND_Terms of Service</t>
-  </si>
-  <si>
-    <t>https://docs.github.com/en/free-pro-team@latest/github/site-policy/github-corporate-terms-of-service_AND_https://github.com/github/site-policy_AND_https://docs.github.com/en/free-pro-team@latest/github/site-policy/github-privacy-statement_AND_https://docs.github.com/en/free-pro-team@latest/github/site-policy/github-terms-of-service</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>Worldwide Protein Data Bank</t>
-  </si>
-  <si>
-    <t>Core Trust Seal_AND_Worldwide Protein Data Bank Policy Statement Governing Integrative/Hybrid Methods Structure Depositions_AND_wwPDB Agreement_AND_wwPDB Privacy and Usage Policies</t>
-  </si>
-  <si>
-    <t>https://www.coretrustseal.org/wp-content/uploads/2021/05/worldwide-protein-data-bank_2021-05-07.pdf_AND_http://www.wwpdb.org/documentation/ihm_AND_http://www.wwpdb.org/about/agreement_AND_https://www.wwpdb.org/about/privacy</t>
-  </si>
-  <si>
-    <t>Public Domain</t>
-  </si>
-  <si>
-    <t>ArrayExpress</t>
-  </si>
-  <si>
-    <t>Data access policy_AND_Data availability  policy_AND_Terms of use</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/arrayexpress/help/data_availability.html_AND_https://www.ebi.ac.uk/ena/about/data-availability-policy_AND_https://www.ebi.ac.uk/about/terms-of-use</t>
-  </si>
-  <si>
-    <t>Public Domain_AND_other</t>
-  </si>
-  <si>
-    <t>BioProject</t>
-  </si>
-  <si>
-    <t>BioProject_AND_The NCBI Handbook / BioProject</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/books/NBK54016/_AND_https://www.ncbi.nlm.nih.gov/books/NBK169438/</t>
-  </si>
-  <si>
-    <t>dcc</t>
-  </si>
-  <si>
-    <t>Mendeley Data</t>
-  </si>
-  <si>
-    <t>Copyright and Intellectual Property Policy_AND_Elsevier Terms and Conditions_AND_Implementation of the CoreTrustSeal_AND_Mendeley terms of use_AND_Terms of Service applicable to governmental users/members</t>
-  </si>
-  <si>
-    <t>https://www.mendeley.com/terms/copyright_AND_https://www.elsevier.com/legal/elsevier-website-terms-and-conditions_AND_https://www.coretrustseal.org/wp-content/uploads/2017/10/pdf.pdf_AND_https://www.mendeley.com/terms/_AND_https://www.mendeley.com/terms-governmental-amendment/</t>
-  </si>
-  <si>
-    <t>CC_AND_CC0</t>
-  </si>
-  <si>
-    <t>Zenodo</t>
-  </si>
-  <si>
-    <t>Policies_AND_Terms of use</t>
-  </si>
-  <si>
-    <t>http://about.zenodo.org/policies/_AND_http://about.zenodo.org/terms/</t>
-  </si>
-  <si>
-    <t>CC_AND_CC0_AND_other</t>
-  </si>
-  <si>
-    <t>ProteomeXchange</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/about/terms-of-use</t>
-  </si>
-  <si>
-    <t>The Electron Microscopy Data Bank</t>
-  </si>
-  <si>
-    <t>wwPDB agreement</t>
-  </si>
-  <si>
-    <t>https://www.wwpdb.org/about/agreement</t>
-  </si>
-  <si>
-    <t>Code Ocean</t>
-  </si>
-  <si>
-    <t>Terms of Use</t>
-  </si>
-  <si>
-    <t>https://codeocean.com/legal/terms-of-use.html</t>
-  </si>
-  <si>
-    <t>CC0_AND_Copyrights_AND_other</t>
-  </si>
-  <si>
-    <t>GIN</t>
-  </si>
-  <si>
-    <t>https://web.gin.g-node.org/G-Node/Info/wiki/Terms+of+Use</t>
-  </si>
-  <si>
-    <t>PeptideAtlas</t>
-  </si>
-  <si>
-    <t>Submissions to PeptideAtlas</t>
-  </si>
-  <si>
-    <t>http://www.peptideatlas.org/upload/</t>
-  </si>
-  <si>
-    <t>Synapse</t>
-  </si>
-  <si>
-    <t>Synapse Commons Governance Overview_AND_Synapse Terms and Conditions of Use</t>
-  </si>
-  <si>
-    <t>https://docs.synapse.org/articles/governance.html_AND_https://s3.amazonaws.com/static.synapse.org/governance/SageBionetworksSynapseTermsandConditionsofUse.pdf?v=4</t>
-  </si>
-  <si>
-    <t>The European Genome-phenome Archive</t>
-  </si>
-  <si>
-    <t>CRG Terms of Use_AND_Data Access Agreement_AND_EBI Terms of Use</t>
-  </si>
-  <si>
-    <t>https://www.crg.eu/node/10699_AND_https://ega-archive.org/files/Example_DAA.doc_AND_https://www.ebi.ac.uk/about/terms-of-use</t>
-  </si>
-  <si>
-    <t>DRYAD</t>
-  </si>
-  <si>
-    <t>Our community_AND_Publication policy_AND_Terms of Service</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/our_community#institutional_AND_https://datadryad.org/stash/terms#publication_AND_https://datadryad.org/stash/terms</t>
-  </si>
-  <si>
-    <t>CC0_AND_other</t>
-  </si>
-  <si>
-    <t>OpenNeuro</t>
-  </si>
-  <si>
-    <t>OpenNeuro FAQ</t>
-  </si>
-  <si>
-    <t>https://openneuro.org/faq</t>
-  </si>
-  <si>
-    <t>CC_AND_CC0_AND_ODC</t>
-  </si>
-  <si>
-    <t>Addgene</t>
-  </si>
-  <si>
-    <t>Addgene Terms of Purchase_AND_Terms of Use</t>
-  </si>
-  <si>
-    <t>https://www.addgene.org/shopping/terms-of-purchase/_AND_https://www.addgene.org/terms-of-use/</t>
-  </si>
-  <si>
-    <t>Clinical Proteomic Tumor Analysis Consortium Data Portal</t>
-  </si>
-  <si>
-    <t>ClinicalTrials.gov</t>
-  </si>
-  <si>
-    <t>Terms and conditions</t>
-  </si>
-  <si>
-    <t>https://www.clinicaltrials.gov/ct2/about-site/terms-conditions</t>
-  </si>
-  <si>
-    <t>Copyrights_AND_Public Domain_AND_other</t>
-  </si>
-  <si>
-    <t>decipher</t>
-  </si>
-  <si>
-    <t>FlowRepository</t>
-  </si>
-  <si>
-    <t>FlowRepository Privacy Policy_AND_Terms of Use</t>
-  </si>
-  <si>
-    <t>http://flowrepository.org/privacy_policy_AND_http://flowrepository.org/terms_of_service</t>
-  </si>
-  <si>
-    <t>GigaDB</t>
-  </si>
-  <si>
-    <t>http://gigadb.org/site/term</t>
-  </si>
-  <si>
-    <t>CC_AND_Public Domain</t>
-  </si>
-  <si>
-    <t>Global Health Data Exchange</t>
-  </si>
-  <si>
-    <t>Privacy Policy_AND_Terms and conditions</t>
-  </si>
-  <si>
-    <t>http://www.healthdata.org/privacy-policy_AND_http://www.healthdata.org/about/terms-and-conditions</t>
-  </si>
-  <si>
-    <t>ODC</t>
-  </si>
-  <si>
-    <t>gpcrmd</t>
-  </si>
-  <si>
-    <t>Harvard Dataverse</t>
-  </si>
-  <si>
-    <t>API Terms of Use_AND_Terms of use</t>
-  </si>
-  <si>
-    <t>https://dataverse.org/best-practices/harvard-api-tou_AND_https://dataverse.org/best-practices/harvard-dataverse-general-terms-use</t>
-  </si>
-  <si>
-    <t>CC0</t>
-  </si>
-  <si>
-    <t>Mass Spectrometry Interactive Virtual Environment</t>
-  </si>
-  <si>
-    <t>ProteomeXchange collaborative agreement</t>
-  </si>
-  <si>
-    <t>http://www.proteomexchange.org/pxcollaborativeagreement.pdf</t>
-  </si>
-  <si>
-    <t>MetaboLights</t>
-  </si>
-  <si>
-    <t>EMBL-EBI Terms of Use_AND_MetaboLights Submission Guide</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/about/terms-of-use_AND_https://docs.google.com/document/d/1kvBdnleInVr1UMyV-sm91w2uK_IfkU11Rx-uxvILOFU/view?pli=1#heading=h.30j0zll</t>
-  </si>
-  <si>
-    <t>PhysioNet</t>
-  </si>
-  <si>
-    <t>PhysioNet Guidelines</t>
-  </si>
-  <si>
-    <t>https://www.physionet.org/guidelines.shtml</t>
-  </si>
-  <si>
-    <t>proteindiffraction</t>
-  </si>
-  <si>
-    <t>raeslab</t>
-  </si>
-  <si>
-    <t>TUdatalib</t>
-  </si>
-  <si>
-    <t>Leitfaden und Informationen zu TUdatalib für Administratoren_AND_Leitlinien zum Umgang mit digitalen Forschungsdaten an der TU Darmstadt_AND_Nutzungsvereinbarung für TUdatalib</t>
-  </si>
-  <si>
-    <t>https://tudatalib.ulb.tu-darmstadt.de/handle/tudatalib/1958.8?locale-attribute=en_US_AND_https://www.ulb.tu-darmstadt.de/fdm-leitlinien_AND_https://www.tu-darmstadt.de/tudata/tudata/tudatalib/inhalt_mit_marginalienspalte_327.de.jsp</t>
-  </si>
-  <si>
-    <t>Apache License 2.0_AND_CC_AND_ODC_AND_Public Domain</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+  <si>
+    <t xml:space="preserve">repository_re3data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repository_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">policy_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">policy_url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_license_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gene Expression Omnibus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field-specific repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEO and MIAME_AND_Guidelines for reviewers and journal editors_AND_Submitting data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ncbi.nlm.nih.gov/geo/info/MIAME.html_AND_http://www.ncbi.nlm.nih.gov/geo/info/reviewer.html_AND_http://www.ncbi.nlm.nih.gov/geo/info/submission.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyrights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">figshare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">general-purpose repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COPE principles of transparency and best practice in scholarly publishing_AND_Privacy Policy_AND_Using figshare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://publicationethics.org/files/Principles%20of%20Transparency%20and%20Best%20Practice%20in%20Scholarly%20Publishing_0.pdf_AND_http://figshare.com/privacy_AND_https://knowledge.figshare.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apache License 2.0_AND_BSD_AND_CC_AND_CC0_AND_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Science Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOP Guidelines_AND_Terms of Use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cos.io/top/_AND_https://github.com/CenterForOpenScience/cos.io/blob/master/TERMS_OF_USE.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC_AND_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRoteomics IDEntifications Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terms of use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/about/terms-of-use/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Nucleotide Archive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMBL-EBI terms of use_AND_ENA Standards and policies_AND_International Nucleotide Sequence Database Collaboration Policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/about/terms-of-use_AND_https://www.ebi.ac.uk/ena/standards-and-policies_AND_http://www.insdc.org/policy.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCBI Nucleotide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCBI Website and Data Usage Policies and Disclaimers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/home/about/policies/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyrights_AND_Public Domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequence Read Archive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GitHub Corporate Terms of Service_AND_GitHub Site Policy_AND_Privacy Policy_AND_Terms of Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.github.com/en/free-pro-team@latest/github/site-policy/github-corporate-terms-of-service_AND_https://github.com/github/site-policy_AND_https://docs.github.com/en/free-pro-team@latest/github/site-policy/github-privacy-statement_AND_https://docs.github.com/en/free-pro-team@latest/github/site-policy/github-terms-of-service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worldwide Protein Data Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Core Trust Seal_AND_Worldwide Protein Data Bank Policy Statement Governing Integrative/Hybrid Methods Structure Depositions_AND_wwPDB Agreement_AND_wwPDB Privacy and Usage Policies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.coretrustseal.org/wp-content/uploads/2021/05/worldwide-protein-data-bank_2021-05-07.pdf_AND_http://www.wwpdb.org/documentation/ihm_AND_http://www.wwpdb.org/about/agreement_AND_https://www.wwpdb.org/about/privacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public Domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArrayExpress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data access policy_AND_Data availability  policy_AND_Terms of use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/help/data_availability.html_AND_https://www.ebi.ac.uk/ena/about/data-availability-policy_AND_https://www.ebi.ac.uk/about/terms-of-use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public Domain_AND_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BioProject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BioProject_AND_The NCBI Handbook / BioProject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/books/NBK54016/_AND_https://www.ncbi.nlm.nih.gov/books/NBK169438/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mendeley Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright and Intellectual Property Policy_AND_Elsevier Terms and Conditions_AND_Implementation of the CoreTrustSeal_AND_Mendeley terms of use_AND_Terms of Service applicable to governmental users/members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mendeley.com/terms/copyright_AND_https://www.elsevier.com/legal/elsevier-website-terms-and-conditions_AND_https://www.coretrustseal.org/wp-content/uploads/2017/10/pdf.pdf_AND_https://www.mendeley.com/terms/_AND_https://www.mendeley.com/terms-governmental-amendment/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC_AND_CC0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zenodo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policies_AND_Terms of use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://about.zenodo.org/policies/_AND_http://about.zenodo.org/terms/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC_AND_CC0_AND_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProteomeXchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/about/terms-of-use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Electron Microscopy Data Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wwPDB agreement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.wwpdb.org/about/agreement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terms of Use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://codeocean.com/legal/terms-of-use.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0_AND_Copyrights_AND_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.gin.g-node.org/G-Node/Info/wiki/Terms+of+Use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PeptideAtlas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submissions to PeptideAtlas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.peptideatlas.org/upload/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synapse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synapse Commons Governance Overview_AND_Synapse Terms and Conditions of Use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.synapse.org/articles/governance.html_AND_https://s3.amazonaws.com/static.synapse.org/governance/SageBionetworksSynapseTermsandConditionsofUse.pdf?v=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The European Genome-phenome Archive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRG Terms of Use_AND_Data Access Agreement_AND_EBI Terms of Use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crg.eu/node/10699_AND_https://ega-archive.org/files/Example_DAA.doc_AND_https://www.ebi.ac.uk/about/terms-of-use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRYAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our community_AND_Publication policy_AND_Terms of Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/our_community#institutional_AND_https://datadryad.org/stash/terms#publication_AND_https://datadryad.org/stash/terms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0_AND_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenNeuro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenNeuro FAQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://openneuro.org/faq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC_AND_CC0_AND_ODC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addgene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addgene Terms of Purchase_AND_Terms of Use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.addgene.org/shopping/terms-of-purchase/_AND_https://www.addgene.org/terms-of-use/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinical Proteomic Tumor Analysis Consortium Data Portal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClinicalTrials.gov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terms and conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.clinicaltrials.gov/ct2/about-site/terms-conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyrights_AND_Public Domain_AND_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decipher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlowRepository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlowRepository Privacy Policy_AND_Terms of Use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://flowrepository.org/privacy_policy_AND_http://flowrepository.org/terms_of_service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GigaDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://gigadb.org/site/term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC_AND_Public Domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Health Data Exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privacy Policy_AND_Terms and conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.healthdata.org/privacy-policy_AND_http://www.healthdata.org/about/terms-and-conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpcrmd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harvard Dataverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API Terms of Use_AND_Terms of use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dataverse.org/best-practices/harvard-api-tou_AND_https://dataverse.org/best-practices/harvard-dataverse-general-terms-use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass Spectrometry Interactive Virtual Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProteomeXchange collaborative agreement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.proteomexchange.org/pxcollaborativeagreement.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MetaboLights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMBL-EBI Terms of Use_AND_MetaboLights Submission Guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/about/terms-of-use_AND_https://docs.google.com/document/d/1kvBdnleInVr1UMyV-sm91w2uK_IfkU11Rx-uxvILOFU/view?pli=1#heading=h.30j0zll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhysioNet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhysioNet Guidelines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.physionet.org/guidelines.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proteindiffraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raeslab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUdatalib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leitfaden und Informationen zu TUdatalib für Administratoren_AND_Leitlinien zum Umgang mit digitalen Forschungsdaten an der TU Darmstadt_AND_Nutzungsvereinbarung für TUdatalib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tudatalib.ulb.tu-darmstadt.de/handle/tudatalib/1958.8?locale-attribute=en_US_AND_https://www.ulb.tu-darmstadt.de/fdm-leitlinien_AND_https://www.tu-darmstadt.de/tudata/tudata/tudatalib/inhalt_mit_marginalienspalte_327.de.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apache License 2.0_AND_CC_AND_ODC_AND_Public Domain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -431,15 +424,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -721,23 +705,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="38.83203125" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -757,7 +732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -773,11 +748,11 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -793,11 +768,11 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -813,11 +788,11 @@
       <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -833,11 +808,11 @@
       <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -853,11 +828,11 @@
       <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -873,11 +848,11 @@
       <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -893,11 +868,11 @@
       <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -913,11 +888,11 @@
       <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -933,11 +908,11 @@
       <c r="E10" t="s">
         <v>39</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -953,11 +928,11 @@
       <c r="E11" t="s">
         <v>43</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -973,11 +948,11 @@
       <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="F12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -993,11 +968,11 @@
       <c r="E13" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1013,11 +988,11 @@
       <c r="E14" t="s">
         <v>51</v>
       </c>
-      <c r="F14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1033,11 +1008,11 @@
       <c r="E15" t="s">
         <v>55</v>
       </c>
-      <c r="F15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -1053,11 +1028,11 @@
       <c r="E16" t="s">
         <v>19</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -1073,11 +1048,11 @@
       <c r="E17" t="s">
         <v>43</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -1093,11 +1068,11 @@
       <c r="E18" t="s">
         <v>64</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1113,11 +1088,11 @@
       <c r="E19" t="s">
         <v>51</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -1133,11 +1108,11 @@
       <c r="E20" t="s">
         <v>39</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -1153,11 +1128,11 @@
       <c r="E21" t="s">
         <v>35</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -1173,11 +1148,11 @@
       <c r="E22" t="s">
         <v>35</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -1193,11 +1168,11 @@
       <c r="E23" t="s">
         <v>79</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -1213,11 +1188,11 @@
       <c r="E24" t="s">
         <v>83</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -1233,11 +1208,11 @@
       <c r="E25" t="s">
         <v>35</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -1253,11 +1228,11 @@
       <c r="E26" t="s">
         <v>43</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
         <v>88</v>
       </c>
@@ -1273,11 +1248,11 @@
       <c r="E27" t="s">
         <v>91</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -1293,11 +1268,11 @@
       <c r="E28" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -1313,11 +1288,11 @@
       <c r="E29" t="s">
         <v>43</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -1333,11 +1308,11 @@
       <c r="E30" t="s">
         <v>98</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -1353,11 +1328,11 @@
       <c r="E31" t="s">
         <v>102</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" t="s">
         <v>103</v>
       </c>
@@ -1373,11 +1348,11 @@
       <c r="E32" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s">
         <v>104</v>
       </c>
@@ -1393,11 +1368,11 @@
       <c r="E33" t="s">
         <v>107</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" t="s">
         <v>108</v>
       </c>
@@ -1413,11 +1388,11 @@
       <c r="E34" t="s">
         <v>23</v>
       </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" t="s">
         <v>111</v>
       </c>
@@ -1433,11 +1408,11 @@
       <c r="E35" t="s">
         <v>35</v>
       </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -1453,11 +1428,11 @@
       <c r="E36" t="s">
         <v>35</v>
       </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" t="s">
         <v>117</v>
       </c>
@@ -1473,11 +1448,11 @@
       <c r="E37" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -1493,11 +1468,11 @@
       <c r="E38" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" t="s">
         <v>119</v>
       </c>
@@ -1513,12 +1488,12 @@
       <c r="E39" t="s">
         <v>122</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>